--- a/natmiOut/OldD0/LR-pairs_lrc2p/Cd84-Cd84.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Cd84-Cd84.xlsx
@@ -519,16 +519,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.21941704619473</v>
+        <v>36.112135</v>
       </c>
       <c r="H2">
-        <v>3.21941704619473</v>
+        <v>108.336405</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.21941704619473</v>
+        <v>36.112135</v>
       </c>
       <c r="N2">
-        <v>3.21941704619473</v>
+        <v>108.336405</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -555,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>10.3646461173292</v>
+        <v>1304.086294258225</v>
       </c>
       <c r="R2">
-        <v>10.3646461173292</v>
+        <v>11736.77664832402</v>
       </c>
       <c r="S2">
         <v>1</v>
